--- a/MR_Traffic.xlsx
+++ b/MR_Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\MR_Traffic_Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC1C5E-7019-4E11-A63A-3F63EB3043ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BA837-25A3-458F-8A16-7EADF22879E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="975" windowWidth="18705" windowHeight="9855" xr2:uid="{A5B792F0-B70C-47AA-A7E2-7E38069FFD15}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A0948E-4CAD-4EBA-A1A0-53D6A91C64F4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +617,186 @@
         <v>7388665821</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1960513584</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7388667569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>77755103</v>
+      </c>
+      <c r="F12" s="1">
+        <v>738866764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>211256629</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7388667768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>29718549</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7388667812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>225809045</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7388667836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>209420883</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7388667847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>211318748</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7388667974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>244806218</v>
+      </c>
+      <c r="F18" s="1">
+        <v>738866817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>418257725</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7388668189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MR_Traffic.xlsx
+++ b/MR_Traffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\MR_Traffic_Sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC1C5E-7019-4E11-A63A-3F63EB3043ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE2BA96-B7C7-4431-9DF3-3355D96A78DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="975" windowWidth="18705" windowHeight="9855" xr2:uid="{A5B792F0-B70C-47AA-A7E2-7E38069FFD15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="9345" xr2:uid="{18B2BA2C-F463-44BF-BDA0-B8E3D403822A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
   <si>
     <t>Road 1</t>
   </si>
@@ -48,6 +54,18 @@
   </si>
   <si>
     <t>Road 4</t>
+  </si>
+  <si>
+    <t>WaitRoad 1</t>
+  </si>
+  <si>
+    <t>WaitRoad 2</t>
+  </si>
+  <si>
+    <t>WaitRoad 3</t>
+  </si>
+  <si>
+    <t>WaitRoad 4</t>
   </si>
   <si>
     <t>Elapsed Time</t>
@@ -405,19 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A0948E-4CAD-4EBA-A1A0-53D6A91C64F4}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BC086-E6FC-4C8D-AA6D-AF2237867C66}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection sqref="A1:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,16 +445,34 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -448,18 +481,36 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>139173</v>
       </c>
-      <c r="F2" s="1">
+      <c r="L2">
         <v>7388665459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -468,153 +519,905 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>136155</v>
       </c>
-      <c r="F3" s="1">
+      <c r="L3">
         <v>7388665459</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>116043</v>
       </c>
-      <c r="F4" s="1">
+      <c r="L4">
         <v>7388665459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>116043</v>
       </c>
-      <c r="F5" s="1">
+      <c r="L5">
         <v>7388665459</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>130848946</v>
       </c>
-      <c r="F6" s="1">
+      <c r="L6">
         <v>7388665459</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>3022476</v>
       </c>
-      <c r="F7" s="1">
+      <c r="L7">
         <v>7388665613</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>306342047</v>
       </c>
-      <c r="F8" s="1">
+      <c r="L8">
         <v>7388665768</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>131734967</v>
       </c>
-      <c r="F9" s="1">
+      <c r="L9">
         <v>7388665787</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>1811189773</v>
       </c>
-      <c r="F10" s="1">
+      <c r="L10">
         <v>7388665821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1960513584</v>
+      </c>
+      <c r="L11">
+        <v>7388667569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>77755103</v>
+      </c>
+      <c r="L12">
+        <v>738866764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>211256629</v>
+      </c>
+      <c r="L13">
+        <v>7388667768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>29718549</v>
+      </c>
+      <c r="L14">
+        <v>7388667812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>225809045</v>
+      </c>
+      <c r="L15">
+        <v>7388667836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>209420883</v>
+      </c>
+      <c r="L16">
+        <v>7388667847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>211318748</v>
+      </c>
+      <c r="L17">
+        <v>7388667974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>244806218</v>
+      </c>
+      <c r="L18">
+        <v>738866817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>418257725</v>
+      </c>
+      <c r="L19">
+        <v>7388668189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>453911892</v>
+      </c>
+      <c r="L20">
+        <v>7389297098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>517516485</v>
+      </c>
+      <c r="L21">
+        <v>7389297106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>470522227</v>
+      </c>
+      <c r="L22">
+        <v>7389297136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>479294525</v>
+      </c>
+      <c r="L23">
+        <v>7389297164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>492305934</v>
+      </c>
+      <c r="L24">
+        <v>7389297509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>440577093</v>
+      </c>
+      <c r="L25" s="1">
+        <v>738929752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>582510094</v>
+      </c>
+      <c r="L26" s="1">
+        <v>738929842</v>
       </c>
     </row>
   </sheetData>

--- a/MR_Traffic.xlsx
+++ b/MR_Traffic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\MR_Traffic_Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE2BA96-B7C7-4431-9DF3-3355D96A78DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F728C5-BF94-41C7-9055-EE09DB380DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="9345" xr2:uid="{18B2BA2C-F463-44BF-BDA0-B8E3D403822A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="9345" xr2:uid="{81AB8837-35FA-4C02-B0AD-E31F6553D623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BC086-E6FC-4C8D-AA6D-AF2237867C66}">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F861C143-E581-4582-9D47-D388A749817C}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L26"/>
+      <selection activeCell="A8" activeCellId="1" sqref="A2:XFD2 A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,37 +475,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="K2">
-        <v>139173</v>
+        <v>897545447</v>
       </c>
       <c r="L2">
-        <v>7388665459</v>
+        <v>7389304643</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -513,37 +513,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>136155</v>
+        <v>192211449</v>
       </c>
       <c r="L3">
-        <v>7388665459</v>
+        <v>7389307945</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -551,75 +551,75 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>116043</v>
+        <v>178753087</v>
       </c>
       <c r="L4">
-        <v>7388665459</v>
+        <v>7389307949</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>116043</v>
+        <v>176721415</v>
       </c>
       <c r="L5">
-        <v>7388665459</v>
+        <v>738930796</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -627,37 +627,37 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>130848946</v>
+        <v>192266612</v>
       </c>
       <c r="L6">
-        <v>7388665459</v>
+        <v>7389308003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -665,75 +665,75 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>3022476</v>
+        <v>903191108</v>
       </c>
       <c r="L7">
-        <v>7388665613</v>
+        <v>7389308461</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="K8">
-        <v>306342047</v>
+        <v>858749904</v>
       </c>
       <c r="L8">
-        <v>7388665768</v>
+        <v>7389309438</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -741,37 +741,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>131734967</v>
-      </c>
-      <c r="L9">
-        <v>7388665787</v>
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>412324997</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7389309656</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -779,645 +779,148 @@
         <v>0</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>1811189773</v>
-      </c>
-      <c r="L10">
-        <v>7388665821</v>
+      <c r="K10" s="1">
+        <v>799206281</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1960513584</v>
-      </c>
-      <c r="L11">
-        <v>7388667569</v>
+        <v>198</v>
+      </c>
+      <c r="K11" s="1">
+        <v>804492267</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7389309714</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>77755103</v>
-      </c>
-      <c r="L12">
-        <v>738866764</v>
+        <v>317</v>
+      </c>
+      <c r="K12" s="1">
+        <v>798261898</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7389309738</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>211256629</v>
-      </c>
-      <c r="L13">
-        <v>7388667768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>29718549</v>
-      </c>
-      <c r="L14">
-        <v>7388667812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>225809045</v>
-      </c>
-      <c r="L15">
-        <v>7388667836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>209420883</v>
-      </c>
-      <c r="L16">
-        <v>7388667847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>211318748</v>
-      </c>
-      <c r="L17">
-        <v>7388667974</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>244806218</v>
-      </c>
-      <c r="L18">
-        <v>738866817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>418257725</v>
-      </c>
-      <c r="L19">
-        <v>7388668189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>12</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>453911892</v>
-      </c>
-      <c r="L20">
-        <v>7389297098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>17</v>
-      </c>
-      <c r="J21">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>517516485</v>
-      </c>
-      <c r="L21">
-        <v>7389297106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>17</v>
-      </c>
-      <c r="J22">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>470522227</v>
-      </c>
-      <c r="L22">
-        <v>7389297136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <v>41</v>
-      </c>
-      <c r="K23">
-        <v>479294525</v>
-      </c>
-      <c r="L23">
-        <v>7389297164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>41</v>
-      </c>
-      <c r="K24">
-        <v>492305934</v>
-      </c>
-      <c r="L24">
-        <v>7389297509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1">
-        <v>440577093</v>
-      </c>
-      <c r="L25" s="1">
-        <v>738929752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>582510094</v>
-      </c>
-      <c r="L26" s="1">
-        <v>738929842</v>
+        <v>256</v>
+      </c>
+      <c r="K13" s="1">
+        <v>849972879</v>
+      </c>
+      <c r="L13" s="1">
+        <v>7389309759</v>
       </c>
     </row>
   </sheetData>

--- a/MR_Traffic.xlsx
+++ b/MR_Traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\MR_Traffic_Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F728C5-BF94-41C7-9055-EE09DB380DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5F5381-62E3-481F-A3C2-3FE00E67B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="9345" xr2:uid="{81AB8837-35FA-4C02-B0AD-E31F6553D623}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="14670" windowHeight="9345" xr2:uid="{81AB8837-35FA-4C02-B0AD-E31F6553D623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Light</t>
   </si>
@@ -44,34 +44,37 @@
     <t>Weather</t>
   </si>
   <si>
-    <t>Road 1</t>
-  </si>
-  <si>
-    <t>Road 2</t>
-  </si>
-  <si>
-    <t>Road 3</t>
-  </si>
-  <si>
-    <t>Road 4</t>
-  </si>
-  <si>
-    <t>WaitRoad 1</t>
-  </si>
-  <si>
-    <t>WaitRoad 2</t>
-  </si>
-  <si>
-    <t>WaitRoad 3</t>
-  </si>
-  <si>
-    <t>WaitRoad 4</t>
-  </si>
-  <si>
     <t>Elapsed Time</t>
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>Road1</t>
+  </si>
+  <si>
+    <t>Road2</t>
+  </si>
+  <si>
+    <t>Road3</t>
+  </si>
+  <si>
+    <t>Road4</t>
+  </si>
+  <si>
+    <t>WaitRoad1</t>
+  </si>
+  <si>
+    <t>WaitRoad2</t>
+  </si>
+  <si>
+    <t>WaitRoad3</t>
+  </si>
+  <si>
+    <t>WaitRoad4</t>
+  </si>
+  <si>
+    <t>TotalWait</t>
   </si>
 </sst>
 </file>
@@ -424,15 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F861C143-E581-4582-9D47-D388A749817C}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="A2:XFD2 A8:XFD8"/>
+      <selection sqref="A1:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,37 +446,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -507,8 +516,11 @@
       <c r="L2">
         <v>7389304643</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -545,8 +557,11 @@
       <c r="L3">
         <v>7389307945</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -583,8 +598,11 @@
       <c r="L4">
         <v>7389307949</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -621,8 +639,11 @@
       <c r="L5">
         <v>738930796</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -659,8 +680,11 @@
       <c r="L6">
         <v>7389308003</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -697,8 +721,11 @@
       <c r="L7">
         <v>7389308461</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -735,8 +762,11 @@
       <c r="L8">
         <v>7389309438</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -773,8 +803,11 @@
       <c r="L9" s="1">
         <v>7389309656</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -808,8 +841,11 @@
       <c r="K10" s="1">
         <v>799206281</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -846,8 +882,11 @@
       <c r="L11" s="1">
         <v>7389309714</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -884,8 +923,11 @@
       <c r="L12" s="1">
         <v>7389309738</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -921,6 +963,1034 @@
       </c>
       <c r="L13" s="1">
         <v>7389309759</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>53645661</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7389355063</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>427789891</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7389355093</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44781636</v>
+      </c>
+      <c r="L16" s="1">
+        <v>7389355113</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>454507669</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7389355334</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>423491239</v>
+      </c>
+      <c r="L18" s="1">
+        <v>7389355365</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>424289855</v>
+      </c>
+      <c r="L19" s="1">
+        <v>7389355378</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>22956225</v>
+      </c>
+      <c r="L20" s="1">
+        <v>7389355411</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>785659641</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7389355434</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <v>41</v>
+      </c>
+      <c r="K22" s="1">
+        <v>162025984</v>
+      </c>
+      <c r="L22" s="1">
+        <v>7389355438</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>85</v>
+      </c>
+      <c r="H23">
+        <v>180</v>
+      </c>
+      <c r="I23">
+        <v>81</v>
+      </c>
+      <c r="J23">
+        <v>259</v>
+      </c>
+      <c r="K23" s="1">
+        <v>78492731</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7389355449</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>87</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1">
+        <v>201902565</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7389355454</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>54</v>
+      </c>
+      <c r="I25">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>246</v>
+      </c>
+      <c r="K25" s="1">
+        <v>409980325</v>
+      </c>
+      <c r="L25" s="1">
+        <v>738935546</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>102</v>
+      </c>
+      <c r="H26">
+        <v>244</v>
+      </c>
+      <c r="I26">
+        <v>115</v>
+      </c>
+      <c r="J26">
+        <v>293</v>
+      </c>
+      <c r="K26" s="1">
+        <v>816934438</v>
+      </c>
+      <c r="L26" s="1">
+        <v>7389355477</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>85</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
+      </c>
+      <c r="I27">
+        <v>81</v>
+      </c>
+      <c r="J27">
+        <v>259</v>
+      </c>
+      <c r="K27" s="1">
+        <v>818543056</v>
+      </c>
+      <c r="L27" s="1">
+        <v>7389355491</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <v>84</v>
+      </c>
+      <c r="I28">
+        <v>148</v>
+      </c>
+      <c r="J28">
+        <v>303</v>
+      </c>
+      <c r="K28" s="1">
+        <v>774043223</v>
+      </c>
+      <c r="L28" s="1">
+        <v>7389355503</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1">
+        <v>776848325</v>
+      </c>
+      <c r="L29" s="1">
+        <v>7389355518</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>93</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30" s="1">
+        <v>161723732</v>
+      </c>
+      <c r="L30" s="1">
+        <v>738935553</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" s="1">
+        <v>214100576</v>
+      </c>
+      <c r="L31" s="1">
+        <v>7389355548</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>533351998</v>
+      </c>
+      <c r="L32" s="1">
+        <v>7389356875</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>519103178</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7389356931</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>500667837</v>
+      </c>
+      <c r="L34" s="1">
+        <v>7389356955</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>496018669</v>
+      </c>
+      <c r="L35" s="1">
+        <v>7389357045</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>506794475</v>
+      </c>
+      <c r="L36" s="1">
+        <v>7389357067</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>494461642</v>
+      </c>
+      <c r="L37" s="1">
+        <v>7389359415</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>39</v>
+      </c>
+      <c r="J38">
+        <v>41</v>
+      </c>
+      <c r="K38" s="1">
+        <v>237682027</v>
+      </c>
+      <c r="L38" s="1">
+        <v>7389359455</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
